--- a/week10.xlsx
+++ b/week10.xlsx
@@ -93,10 +93,6 @@
     <t>密碼</t>
   </si>
   <si>
-    <t>role_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -425,6 +421,10 @@
   </si>
   <si>
     <t>image_path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="14.1" customHeight="1"/>
@@ -1888,11 +1888,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="59.1" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="8">
         <v>11</v>
@@ -1901,12 +1901,12 @@
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
@@ -1920,31 +1920,31 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>14</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
@@ -1973,34 +1973,34 @@
         <v>15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="7" t="s">
@@ -2009,7 +2009,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1">
@@ -2023,10 +2023,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.1" customHeight="1">
       <c r="A16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="19" spans="1:256" ht="14.1" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="8">
         <v>100</v>
@@ -2092,15 +2092,15 @@
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="14.1" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="8">
         <v>100</v>
@@ -2109,15 +2109,15 @@
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:256" ht="14.1" customHeight="1">
       <c r="A21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="C21" s="8">
         <v>11</v>
@@ -2126,30 +2126,30 @@
       <c r="E21" s="9"/>
       <c r="F21" s="7"/>
       <c r="G21" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:256" ht="14.1" customHeight="1">
       <c r="A22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="7"/>
       <c r="E22" s="9"/>
       <c r="F22" s="7"/>
       <c r="G22" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:256" ht="14.1" customHeight="1">
       <c r="A23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="C23" s="8">
         <v>100</v>
@@ -2158,15 +2158,15 @@
       <c r="E23" s="7"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:256" ht="14.1" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="29" spans="1:256" ht="14.1" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>14</v>
@@ -2234,7 +2234,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="IP29"/>
       <c r="IQ29"/>
@@ -2246,17 +2246,17 @@
     </row>
     <row r="30" spans="1:256" ht="14.1" customHeight="1">
       <c r="A30" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="IP30"/>
       <c r="IQ30"/>
@@ -2277,10 +2277,10 @@
     </row>
     <row r="32" spans="1:256" ht="14.1" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="35" spans="1:256" ht="14.1" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>14</v>
@@ -2369,30 +2369,30 @@
         <v>18</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:256" ht="14.1" customHeight="1">
       <c r="A36" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:256" ht="14.1" customHeight="1">
       <c r="A38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="40" spans="1:256" ht="14.1" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>10</v>
@@ -2446,55 +2446,55 @@
     </row>
     <row r="41" spans="1:256" ht="14.1" customHeight="1">
       <c r="A41" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="7"/>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
       <c r="G41" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:256" ht="14.1" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
       <c r="G42" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:256" ht="14.1" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:256" ht="14.1" customHeight="1">
       <c r="A45" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="47" spans="1:256" ht="14.1" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>10</v>
@@ -2548,55 +2548,55 @@
     </row>
     <row r="48" spans="1:256" ht="14.1" customHeight="1">
       <c r="A48" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
       <c r="G48" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.1" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="7"/>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
       <c r="G49" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.1" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.1" customHeight="1">
       <c r="A52" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="55" spans="1:7" ht="14.1" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="8">
         <v>100</v>
@@ -2664,30 +2664,30 @@
         <v>18</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.1" customHeight="1">
       <c r="A56" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.1" customHeight="1">
       <c r="A58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="61" spans="1:7" ht="14.1" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>10</v>
@@ -2758,25 +2758,25 @@
     </row>
     <row r="62" spans="1:7" ht="14.1" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.1" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" s="8">
         <v>11</v>
@@ -2785,12 +2785,12 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.1" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>14</v>
@@ -2802,49 +2802,49 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.1" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.1" customHeight="1">
       <c r="A66" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C66" s="8">
         <v>1</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.1" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="7" t="s">
@@ -2853,12 +2853,12 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.1" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>10</v>
@@ -2872,15 +2872,15 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.1" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="11" t="s">
@@ -2889,15 +2889,15 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.1" customHeight="1">
       <c r="A71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="74" spans="1:7" ht="14.1" customHeight="1">
       <c r="A74" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>14</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="77" spans="1:7" ht="14.1" customHeight="1">
       <c r="A77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="80" spans="1:7" ht="14.1" customHeight="1">
       <c r="A80" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" s="8">
         <v>11</v>
@@ -3037,15 +3037,15 @@
       <c r="E80" s="9"/>
       <c r="F80" s="10"/>
       <c r="G80" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.1" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" s="8">
         <v>11</v>
@@ -3054,7 +3054,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="10"/>
       <c r="G81" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
